--- a/results/acl-pretrain/mbert/results_pos_postprocessed.xlsx
+++ b/results/acl-pretrain/mbert/results_pos_postprocessed.xlsx
@@ -624,52 +624,52 @@
         <v>2</v>
       </c>
       <c r="C2" s="8">
-        <v>0.8981853442305029</v>
+        <v>0.9824459770114943</v>
       </c>
       <c r="D2" s="9">
-        <v>0.8397284942512814</v>
+        <v>0.8229394636015326</v>
       </c>
       <c r="E2" s="9">
-        <v>0.7610010620122823</v>
+        <v>0.7516291187739463</v>
       </c>
       <c r="F2" s="9">
-        <v>0.8408366809807453</v>
+        <v>0.8470927203065134</v>
       </c>
       <c r="G2" s="9">
-        <v>0.8144710717089163</v>
+        <v>0.7861885057471264</v>
       </c>
       <c r="H2" s="9">
-        <v>0.6014683474165397</v>
+        <v>0.5591141762452108</v>
       </c>
       <c r="I2" s="9">
-        <v>0.5479983377199058</v>
+        <v>0.574663601532567</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="9">
-        <v>0.7337119637992335</v>
+        <v>0.7238620689655172</v>
       </c>
       <c r="L2" s="9">
-        <v>0.6829200720321374</v>
+        <v>0.667656704980843</v>
       </c>
       <c r="M2" s="9">
-        <v>0.6089947822874822</v>
+        <v>0.6131157088122605</v>
       </c>
       <c r="N2" s="9">
-        <v>0.5997137184282219</v>
+        <v>0.5895019157088123</v>
       </c>
       <c r="O2" s="9">
-        <v>0.5631435563559126</v>
+        <v>0.5680674329501916</v>
       </c>
       <c r="P2" s="9">
-        <v>0.6265872466177218</v>
+        <v>0.6250727969348659</v>
       </c>
       <c r="Q2" s="9">
-        <v>0.6205845684997923</v>
+        <v>0.6401900383141762</v>
       </c>
       <c r="R2" s="9">
-        <v>0.7214757353280694</v>
+        <v>0.7131310344827586</v>
       </c>
       <c r="S2" s="9">
         <v>0.1961952255621739</v>
@@ -683,52 +683,52 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>0.8317615358706635</v>
+        <v>0.844756728092271</v>
       </c>
       <c r="D3" s="8">
-        <v>0.8981138430447962</v>
+        <v>0.9882388591125169</v>
       </c>
       <c r="E3" s="9">
-        <v>0.7250757830919502</v>
+        <v>0.777674665252552</v>
       </c>
       <c r="F3" s="9">
-        <v>0.8488127315594476</v>
+        <v>0.8765174901990492</v>
       </c>
       <c r="G3" s="9">
-        <v>0.767009093971034</v>
+        <v>0.7590954716766728</v>
       </c>
       <c r="H3" s="9">
-        <v>0.5632788817783766</v>
+        <v>0.5635499327664248</v>
       </c>
       <c r="I3" s="9">
-        <v>0.5955708992926911</v>
+        <v>0.5846858961004526</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="9">
-        <v>0.7381694173122263</v>
+        <v>0.8137535273953145</v>
       </c>
       <c r="L3" s="9">
-        <v>0.60500168406871</v>
+        <v>0.6331319482585557</v>
       </c>
       <c r="M3" s="9">
-        <v>0.5506483664533512</v>
+        <v>0.5701785951023655</v>
       </c>
       <c r="N3" s="9">
-        <v>0.5133462445267767</v>
+        <v>0.5201984810893733</v>
       </c>
       <c r="O3" s="9">
-        <v>0.5322078140788145</v>
+        <v>0.5320732561883298</v>
       </c>
       <c r="P3" s="9">
-        <v>0.5505641630178512</v>
+        <v>0.5775458798128823</v>
       </c>
       <c r="Q3" s="9">
-        <v>0.6405776355675311</v>
+        <v>0.6349311566068825</v>
       </c>
       <c r="R3" s="9">
-        <v>0.7221286628494442</v>
+        <v>0.7232628169921024</v>
       </c>
       <c r="S3" s="9">
         <v>0.203014482990906</v>
@@ -766,7 +766,7 @@
         <v>20</v>
       </c>
       <c r="K4" s="9">
-        <v>0.7704175621737795</v>
+        <v>0.7793214614676083</v>
       </c>
       <c r="L4" s="9">
         <v>0.77655818237642</v>
@@ -825,7 +825,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="9">
-        <v>0.8279049589534806</v>
+        <v>0.8012414069278516</v>
       </c>
       <c r="L5" s="9">
         <v>0.7456116932523527</v>
@@ -884,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="9">
-        <v>0.67762793275448</v>
+        <v>0.6810456308886015</v>
       </c>
       <c r="L6" s="9">
         <v>0.6591538887862554</v>
@@ -919,52 +919,52 @@
         <v>7</v>
       </c>
       <c r="C7" s="9">
-        <v>0.4849404622927854</v>
+        <v>0.5141525141525142</v>
       </c>
       <c r="D7" s="9">
-        <v>0.562456222274107</v>
+        <v>0.5670163170163171</v>
       </c>
       <c r="E7" s="9">
-        <v>0.3678262899836563</v>
+        <v>0.4023476523476524</v>
       </c>
       <c r="F7" s="9">
-        <v>0.6010273173009573</v>
+        <v>0.6224608724608724</v>
       </c>
       <c r="G7" s="9">
-        <v>0.5201494279710484</v>
+        <v>0.5213120213120214</v>
       </c>
       <c r="H7" s="8">
-        <v>0.9188419332243755</v>
+        <v>0.9492174492174492</v>
       </c>
       <c r="I7" s="9">
-        <v>0.5106700910576698</v>
+        <v>0.5404595404595405</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="9">
-        <v>0.5731496614522531</v>
+        <v>0.5937395937395937</v>
       </c>
       <c r="L7" s="9">
-        <v>0.5490077048797571</v>
+        <v>0.5826673326673326</v>
       </c>
       <c r="M7" s="9">
-        <v>0.5209432640672426</v>
+        <v>0.5621878121878122</v>
       </c>
       <c r="N7" s="9">
-        <v>0.4995563857109503</v>
+        <v>0.5382950382950383</v>
       </c>
       <c r="O7" s="9">
-        <v>0.559981321503619</v>
+        <v>0.5938228438228438</v>
       </c>
       <c r="P7" s="9">
-        <v>0.4982488909642774</v>
+        <v>0.5105727605727606</v>
       </c>
       <c r="Q7" s="9">
-        <v>0.4335279010039692</v>
+        <v>0.4392274392274392</v>
       </c>
       <c r="R7" s="9">
-        <v>0.5040859210833528</v>
+        <v>0.5322177822177823</v>
       </c>
       <c r="S7" s="9">
         <v>0.2526266635535839</v>
@@ -1002,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="9">
-        <v>0.6282726892513593</v>
+        <v>0.6271016311166876</v>
       </c>
       <c r="L8" s="9">
         <v>0.550564617314931</v>
@@ -1061,7 +1061,7 @@
         <v>20</v>
       </c>
       <c r="K9" s="9">
-        <v>0.557476928590628</v>
+        <v>0.3885852522175433</v>
       </c>
       <c r="L9" s="9">
         <v>0.4663112624316818</v>
@@ -1096,52 +1096,52 @@
         <v>10</v>
       </c>
       <c r="C10" s="9">
-        <v>0.7453400503778338</v>
+        <v>0.7381154499151104</v>
       </c>
       <c r="D10" s="9">
-        <v>0.8025188916876574</v>
+        <v>0.8202886247877759</v>
       </c>
       <c r="E10" s="9">
-        <v>0.7477581863979849</v>
+        <v>0.750169779286927</v>
       </c>
       <c r="F10" s="9">
-        <v>0.8038790931989924</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="G10" s="9">
-        <v>0.7140050377833753</v>
+        <v>0.6646010186757215</v>
       </c>
       <c r="H10" s="9">
-        <v>0.6330982367758187</v>
+        <v>0.6289473684210526</v>
       </c>
       <c r="I10" s="9">
-        <v>0.5950629722921914</v>
+        <v>0.580730050933786</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="8">
-        <v>0.9049874055415618</v>
+        <v>0.9275891341256367</v>
       </c>
       <c r="L10" s="9">
-        <v>0.7392443324937028</v>
+        <v>0.7298811544991511</v>
       </c>
       <c r="M10" s="9">
-        <v>0.6463476070528967</v>
+        <v>0.6679966044142615</v>
       </c>
       <c r="N10" s="9">
-        <v>0.5987405541561713</v>
+        <v>0.5992359932088285</v>
       </c>
       <c r="O10" s="9">
-        <v>0.5791435768261964</v>
+        <v>0.5795415959252971</v>
       </c>
       <c r="P10" s="9">
-        <v>0.6411586901763224</v>
+        <v>0.6387945670628183</v>
       </c>
       <c r="Q10" s="9">
-        <v>0.6859949622166247</v>
+        <v>0.6155348047538201</v>
       </c>
       <c r="R10" s="9">
-        <v>0.7662468513853904</v>
+        <v>0.7343803056027165</v>
       </c>
       <c r="S10" s="9">
         <v>0.2358186397984887</v>
@@ -1155,52 +1155,52 @@
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>0.7825317575680971</v>
+        <v>0.7401306447032093</v>
       </c>
       <c r="D11" s="9">
-        <v>0.8485748593819125</v>
+        <v>0.8178074410678784</v>
       </c>
       <c r="E11" s="9">
-        <v>0.7685647475194337</v>
+        <v>0.739136608917921</v>
       </c>
       <c r="F11" s="9">
-        <v>0.8394741831511091</v>
+        <v>0.7874183470604942</v>
       </c>
       <c r="G11" s="9">
-        <v>0.7858813120141566</v>
+        <v>0.7884597178831771</v>
       </c>
       <c r="H11" s="9">
-        <v>0.6468432029324401</v>
+        <v>0.6336741456025751</v>
       </c>
       <c r="I11" s="9">
-        <v>0.571193831763888</v>
+        <v>0.5858657578339487</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="9">
-        <v>0.7932756114516842</v>
+        <v>0.7567452428287418</v>
       </c>
       <c r="L11" s="8">
-        <v>0.9734563609934905</v>
+        <v>0.9651614124775159</v>
       </c>
       <c r="M11" s="9">
-        <v>0.7702079251722177</v>
+        <v>0.7496923222569346</v>
       </c>
       <c r="N11" s="9">
-        <v>0.6453896227011313</v>
+        <v>0.6361355675470983</v>
       </c>
       <c r="O11" s="9">
-        <v>0.680022751690577</v>
+        <v>0.6616964877402253</v>
       </c>
       <c r="P11" s="9">
-        <v>0.7652151930733742</v>
+        <v>0.7340244248792956</v>
       </c>
       <c r="Q11" s="9">
-        <v>0.6453896227011313</v>
+        <v>0.636324907696677</v>
       </c>
       <c r="R11" s="9">
-        <v>0.7918852303608671</v>
+        <v>0.7894537536684654</v>
       </c>
       <c r="S11" s="9">
         <v>0.266889970296404</v>
@@ -1238,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="K12" s="9">
-        <v>0.6942643800771313</v>
+        <v>0.6954951998030688</v>
       </c>
       <c r="L12" s="9">
         <v>0.7055468942315583</v>
@@ -1297,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="9">
-        <v>0.5435380384967919</v>
+        <v>0.568638510893323</v>
       </c>
       <c r="L13" s="9">
         <v>0.5782979623492914</v>
@@ -1332,52 +1332,52 @@
         <v>14</v>
       </c>
       <c r="C14" s="9">
-        <v>0.4023289774216497</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="D14" s="9">
-        <v>0.5032762946044108</v>
+        <v>0.4875709682369188</v>
       </c>
       <c r="E14" s="9">
-        <v>0.3463885872617666</v>
+        <v>0.3107257940770293</v>
       </c>
       <c r="F14" s="9">
-        <v>0.4327704347174898</v>
+        <v>0.3551480742673009</v>
       </c>
       <c r="G14" s="9">
-        <v>0.3803497210469166</v>
+        <v>0.3672702163572196</v>
       </c>
       <c r="H14" s="9">
-        <v>0.5187029617703224</v>
+        <v>0.4797452815712751</v>
       </c>
       <c r="I14" s="9">
-        <v>0.4326581046167671</v>
+        <v>0.4478287555623753</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="9">
-        <v>0.4411577489047815</v>
+        <v>0.4375479515114317</v>
       </c>
       <c r="L14" s="9">
-        <v>0.4828696596397948</v>
+        <v>0.4686205309191346</v>
       </c>
       <c r="M14" s="9">
-        <v>0.5024899838993522</v>
+        <v>0.5049102347705999</v>
       </c>
       <c r="N14" s="9">
-        <v>0.4829445463736099</v>
+        <v>0.4796685591529845</v>
       </c>
       <c r="O14" s="8">
-        <v>0.9275470850338863</v>
+        <v>0.9703851465398189</v>
       </c>
       <c r="P14" s="9">
-        <v>0.5418804058860973</v>
+        <v>0.518796992481203</v>
       </c>
       <c r="Q14" s="9">
-        <v>0.3736099150035571</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="R14" s="9">
-        <v>0.4884112779421125</v>
+        <v>0.4825840110480282</v>
       </c>
       <c r="S14" s="9">
         <v>0.2425955741940315</v>
@@ -1415,7 +1415,7 @@
         <v>20</v>
       </c>
       <c r="K15" s="9">
-        <v>0.6715428125609518</v>
+        <v>0.6762239126194656</v>
       </c>
       <c r="L15" s="9">
         <v>0.6914374878096352</v>
@@ -1474,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="K16" s="9">
-        <v>0.6717373348017621</v>
+        <v>0.6526362885462555</v>
       </c>
       <c r="L16" s="9">
         <v>0.5567524779735683</v>
@@ -1533,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="9">
-        <v>0.616898989231684</v>
+        <v>0.5704564973244368</v>
       </c>
       <c r="L17" s="9">
         <v>0.4909823611019357</v>
@@ -1566,52 +1566,52 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="9">
-        <v>0.6429571362818465</v>
+        <v>0.6386982839475939</v>
       </c>
       <c r="D19" s="8">
-        <v>0.6835191700348686</v>
+        <v>0.6807903735356056</v>
       </c>
       <c r="E19" s="9">
-        <v>0.6143978696961482</v>
+        <v>0.6154024671887451</v>
       </c>
       <c r="F19" s="9">
-        <v>0.6584372368212416</v>
+        <v>0.6547317507243603</v>
       </c>
       <c r="G19" s="9">
-        <v>0.6432960858399983</v>
+        <v>0.6369668383170979</v>
       </c>
       <c r="H19" s="9">
-        <v>0.5568767697044864</v>
+        <v>0.5503193879666892</v>
       </c>
       <c r="I19" s="9">
-        <v>0.5410911503481988</v>
+        <v>0.5451631080601692</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="9">
-        <v>0.6626097353208151</v>
+        <v>0.6510929450830294</v>
       </c>
       <c r="L19" s="9">
-        <v>0.6186840187161154</v>
+        <v>0.6202116332635098</v>
       </c>
       <c r="M19" s="9">
-        <v>0.5881873386569613</v>
+        <v>0.5927506285644074</v>
       </c>
       <c r="N19" s="9">
-        <v>0.5338898864877366</v>
+        <v>0.5354461853614215</v>
       </c>
       <c r="O19" s="9">
-        <v>0.5553358480059638</v>
+        <v>0.5567160210840817</v>
       </c>
       <c r="P19" s="9">
-        <v>0.5845425432125728</v>
+        <v>0.5832860653464517</v>
       </c>
       <c r="Q19" s="9">
-        <v>0.5763632638667185</v>
+        <v>0.5726349146676887</v>
       </c>
       <c r="R19" s="9">
-        <v>0.6735869084891986</v>
+        <v>0.6723066434933729</v>
       </c>
       <c r="S19" s="9">
         <v>0.2632533858126154</v>
@@ -1679,53 +1679,53 @@
         <v>19</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="9">
-        <v>0.8348403942024935</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.838453707398594</v>
+      <c r="C24" s="8">
+        <v>0.8380891922578954</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.8342564497361569</v>
       </c>
       <c r="E24" s="9">
-        <v>0.7498477881462123</v>
+        <v>0.7606545228767788</v>
       </c>
       <c r="F24" s="9">
-        <v>0.8265053457832636</v>
+        <v>0.8349955452746061</v>
       </c>
       <c r="G24" s="9">
-        <v>0.8000964265436784</v>
+        <v>0.7910473794796405</v>
       </c>
       <c r="H24" s="9">
-        <v>0.5906736424707152</v>
+        <v>0.5822570184340591</v>
       </c>
       <c r="I24" s="9">
-        <v>0.5630676318187394</v>
+        <v>0.5662236839428239</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="9">
-        <v>0.7495663669986401</v>
+        <v>0.7598448191289786</v>
       </c>
       <c r="L24" s="9">
-        <v>0.6938491041031751</v>
+        <v>0.6964224835308853</v>
       </c>
       <c r="M24" s="9">
-        <v>0.6149450178135727</v>
+        <v>0.6196752488483311</v>
       </c>
       <c r="N24" s="9">
-        <v>0.56144046887431</v>
+        <v>0.5607685556429474</v>
       </c>
       <c r="O24" s="9">
-        <v>0.5636056591630394</v>
+        <v>0.5645635229037982</v>
       </c>
       <c r="P24" s="9">
-        <v>0.6196340037852833</v>
+        <v>0.6247274572077183</v>
       </c>
       <c r="Q24" s="9">
-        <v>0.6604938344922486</v>
+        <v>0.6632856326629957</v>
       </c>
       <c r="R24" s="9">
-        <v>0.7277375641359637</v>
+        <v>0.7262954547954331</v>
       </c>
       <c r="S24" s="9">
         <v>0.208925063943646</v>
@@ -1737,52 +1737,52 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="9">
-        <v>0.5306614450182328</v>
+        <v>0.5361583078674841</v>
       </c>
       <c r="D25" s="9">
-        <v>0.5909584457698646</v>
+        <v>0.5965409027304467</v>
       </c>
       <c r="E25" s="9">
-        <v>0.5311807397559219</v>
+        <v>0.5404139785691564</v>
       </c>
       <c r="F25" s="9">
-        <v>0.5713969293261044</v>
+        <v>0.5814307061066577</v>
       </c>
       <c r="G25" s="9">
-        <v>0.5518742989481031</v>
+        <v>0.539813942506433</v>
       </c>
       <c r="H25" s="9">
-        <v>0.5531183858351272</v>
+        <v>0.5517347630502051</v>
       </c>
       <c r="I25" s="9">
-        <v>0.5399183681285369</v>
+        <v>0.5450705441430254</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="9">
-        <v>0.5862997597647468</v>
+        <v>0.5364754923579415</v>
       </c>
       <c r="L25" s="9">
-        <v>0.5762819792800182</v>
+        <v>0.5823560917282742</v>
       </c>
       <c r="M25" s="9">
-        <v>0.5533424430841846</v>
+        <v>0.5690658294546682</v>
       </c>
       <c r="N25" s="9">
-        <v>0.4993281026479435</v>
+        <v>0.5091366255571297</v>
       </c>
       <c r="O25" s="9">
-        <v>0.5219586911078177</v>
+        <v>0.5305185764623991</v>
       </c>
       <c r="P25" s="9">
-        <v>0.5350437687169793</v>
+        <v>0.5375337053407241</v>
       </c>
       <c r="Q25" s="9">
-        <v>0.5235785504822787</v>
+        <v>0.5073883956724452</v>
       </c>
       <c r="R25" s="8">
-        <v>0.614598769777729</v>
+        <v>0.613665098615668</v>
       </c>
       <c r="S25" s="9">
         <v>0.2701512963828191</v>
@@ -1794,52 +1794,52 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="9">
-        <v>0.5993844295826897</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0.6482120327705737</v>
+        <v>0.5796113438562092</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.6389174838342686</v>
       </c>
       <c r="E26" s="9">
-        <v>0.5782686598708006</v>
+        <v>0.5652504735135506</v>
       </c>
       <c r="F26" s="9">
-        <v>0.6162166904298669</v>
+        <v>0.5902810511217063</v>
       </c>
       <c r="G26" s="9">
-        <v>0.5958409978948308</v>
+        <v>0.5937407781306955</v>
       </c>
       <c r="H26" s="9">
-        <v>0.5665753440564864</v>
+        <v>0.556149996550704</v>
       </c>
       <c r="I26" s="9">
-        <v>0.5338326257046987</v>
+        <v>0.5398011411078324</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="9">
-        <v>0.6287557182982682</v>
+        <v>0.6269301635312061</v>
       </c>
       <c r="L26" s="9">
-        <v>0.6145380010075698</v>
+        <v>0.6109757188274048</v>
       </c>
       <c r="M26" s="9">
-        <v>0.635540868635675</v>
+        <v>0.6310170306246662</v>
       </c>
       <c r="N26" s="9">
-        <v>0.5832084255544703</v>
+        <v>0.5800759149608058</v>
       </c>
       <c r="O26" s="9">
-        <v>0.623852733516761</v>
+        <v>0.619271167529173</v>
       </c>
       <c r="P26" s="9">
-        <v>0.6353402473796275</v>
+        <v>0.6217717019798843</v>
       </c>
       <c r="Q26" s="9">
-        <v>0.5217817393025161</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0.6422444759059244</v>
+        <v>0.5207570173825464</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0.6405927271886271</v>
       </c>
       <c r="S26" s="9">
         <v>0.3230802477871418</v>
@@ -1875,7 +1875,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="9">
-        <v>0.6443181620167231</v>
+        <v>0.6115463929353462</v>
       </c>
       <c r="L27" s="9">
         <v>0.523867419537752</v>
@@ -1908,52 +1908,52 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="9">
-        <v>0.6394000096297718</v>
+        <v>0.6366431534243151</v>
       </c>
       <c r="D29" s="9">
-        <v>0.6811658932342988</v>
+        <v>0.6791885558247588</v>
       </c>
       <c r="E29" s="9">
-        <v>0.6148881262531939</v>
+        <v>0.6166435730498316</v>
       </c>
       <c r="F29" s="9">
-        <v>0.654012991351286</v>
+        <v>0.6521600755922197</v>
       </c>
       <c r="G29" s="9">
-        <v>0.64474710536649</v>
+        <v>0.6389446995490292</v>
       </c>
       <c r="H29" s="9">
-        <v>0.5410357750188204</v>
+        <v>0.5359793764369802</v>
       </c>
       <c r="I29" s="9">
-        <v>0.5357185143155163</v>
+        <v>0.539287700200943</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="9">
-        <v>0.6522350017695946</v>
+        <v>0.6336992169883681</v>
       </c>
       <c r="L29" s="9">
-        <v>0.6021341259821288</v>
+        <v>0.603405428406079</v>
       </c>
       <c r="M29" s="9">
-        <v>0.5750260503717477</v>
+        <v>0.5790084952203061</v>
       </c>
       <c r="N29" s="9">
-        <v>0.5198692292860365</v>
+        <v>0.5213702540570763</v>
       </c>
       <c r="O29" s="9">
-        <v>0.5434497366688976</v>
+        <v>0.5446837824458357</v>
       </c>
       <c r="P29" s="9">
-        <v>0.5710585130799413</v>
+        <v>0.5695622242415503</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.5864027528437208</v>
+        <v>0.5827969832039568</v>
       </c>
       <c r="R29" s="8">
-        <v>0.6950197894593095</v>
+        <v>0.6940129071543373</v>
       </c>
       <c r="S29" s="9">
         <v>0.2594669556304807</v>
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="8">
-        <v>0.8099487324148484</v>
+        <v>0.8118086179250156</v>
       </c>
       <c r="D34" s="9">
-        <v>0.6344358804293649</v>
+        <v>0.6361085071686206</v>
       </c>
       <c r="E34" s="9">
-        <v>0.6106948507478761</v>
+        <v>0.6132314536267361</v>
       </c>
       <c r="F34" s="9">
-        <v>0.6941156993141062</v>
+        <v>0.6947905437292143</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2001,16 +2001,16 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="9">
-        <v>0.5552143717636454</v>
+        <v>0.5588715675560356</v>
       </c>
       <c r="D35" s="9">
-        <v>0.5597788379094703</v>
+        <v>0.544426933183724</v>
       </c>
       <c r="E35" s="9">
-        <v>0.5371909969673887</v>
+        <v>0.5457221657086391</v>
       </c>
       <c r="F35" s="8">
-        <v>0.5690886601300038</v>
+        <v>0.5605267471440566</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2019,16 +2019,16 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="9">
-        <v>0.6075845621097523</v>
+        <v>0.593560226091286</v>
       </c>
       <c r="D36" s="9">
-        <v>0.5763878960198178</v>
+        <v>0.5742937670632475</v>
       </c>
       <c r="E36" s="8">
-        <v>0.6184960552188207</v>
+        <v>0.6126223067843868</v>
       </c>
       <c r="F36" s="9">
-        <v>0.5820131076042203</v>
+        <v>0.5806748722855868</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2040,7 +2040,7 @@
         <v>0.6146236343797865</v>
       </c>
       <c r="D37" s="9">
-        <v>0.5347164404465888</v>
+        <v>0.5237925174194632</v>
       </c>
       <c r="E37" s="9">
         <v>0.482848221376916</v>
@@ -2055,16 +2055,16 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="9">
-        <v>0.592474189417728</v>
+        <v>0.589018476009036</v>
       </c>
       <c r="D39" s="9">
-        <v>0.5818467389652572</v>
+        <v>0.5780649305504437</v>
       </c>
       <c r="E39" s="9">
-        <v>0.5435780230307269</v>
+        <v>0.5472672802374304</v>
       </c>
       <c r="F39" s="8">
-        <v>0.6150724890161101</v>
+        <v>0.6119973877196193</v>
       </c>
     </row>
   </sheetData>

--- a/results/acl-pretrain/mbert/results_pos_postprocessed.xlsx
+++ b/results/acl-pretrain/mbert/results_pos_postprocessed.xlsx
@@ -672,7 +672,7 @@
         <v>0.7131310344827586</v>
       </c>
       <c r="S2" s="9">
-        <v>0.1961952255621739</v>
+        <v>0.2118068965517241</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -731,7 +731,7 @@
         <v>0.7232628169921024</v>
       </c>
       <c r="S3" s="9">
-        <v>0.203014482990906</v>
+        <v>0.1805458229957766</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -967,7 +967,7 @@
         <v>0.5322177822177823</v>
       </c>
       <c r="S7" s="9">
-        <v>0.2526266635535839</v>
+        <v>0.2757242757242757</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1144,7 +1144,7 @@
         <v>0.7343803056027165</v>
       </c>
       <c r="S10" s="9">
-        <v>0.2358186397984887</v>
+        <v>0.216893039049236</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1203,7 +1203,7 @@
         <v>0.7894537536684654</v>
       </c>
       <c r="S11" s="9">
-        <v>0.266889970296404</v>
+        <v>0.2738805263656158</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1321,7 +1321,7 @@
         <v>0.5665585560177677</v>
       </c>
       <c r="S13" s="9">
-        <v>0.4873371924746744</v>
+        <v>0.2939434534301629</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1380,7 +1380,7 @@
         <v>0.4825840110480282</v>
       </c>
       <c r="S14" s="9">
-        <v>0.2425955741940315</v>
+        <v>0.2832591683289857</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1439,7 +1439,7 @@
         <v>0.6609128145114102</v>
       </c>
       <c r="S15" s="9">
-        <v>0.3700759993038232</v>
+        <v>0.2672127950068266</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1498,7 +1498,7 @@
         <v>0.7954983480176211</v>
       </c>
       <c r="S16" s="9">
-        <v>0.2688063225868633</v>
+        <v>0.2971181376820615</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1614,7 +1614,7 @@
         <v>0.6723066434933729</v>
       </c>
       <c r="S19" s="9">
-        <v>0.2632533858126154</v>
+        <v>0.2493173885859726</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1728,7 +1728,7 @@
         <v>0.7262954547954331</v>
       </c>
       <c r="S24" s="9">
-        <v>0.208925063943646</v>
+        <v>0.2075536661425302</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1785,7 +1785,7 @@
         <v>0.613665098615668</v>
       </c>
       <c r="S25" s="9">
-        <v>0.2701512963828191</v>
+        <v>0.2711942992381789</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1842,7 +1842,7 @@
         <v>0.6405927271886271</v>
       </c>
       <c r="S26" s="9">
-        <v>0.3230802477871418</v>
+        <v>0.2733596891596734</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -1899,7 +1899,7 @@
         <v>0.7954983480176211</v>
       </c>
       <c r="S27" s="9">
-        <v>0.2357112144083157</v>
+        <v>0.2498671219559148</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -1956,7 +1956,7 @@
         <v>0.6940129071543373</v>
       </c>
       <c r="S29" s="9">
-        <v>0.2594669556304807</v>
+        <v>0.2504936941240743</v>
       </c>
     </row>
     <row r="33" spans="1:6">
